--- a/data/test_files/Artist_Log.xlsx
+++ b/data/test_files/Artist_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB1B17-160E-4158-BAAA-5A7E596D421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17C767C-ED1E-449F-AED6-A51B4936C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30380" yWindow="1950" windowWidth="25620" windowHeight="12550" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25570" yWindow="330" windowWidth="25090" windowHeight="7740" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load-1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/test_files/Artist_Log.xlsx
+++ b/data/test_files/Artist_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17C767C-ED1E-449F-AED6-A51B4936C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7FA00-B9DB-4BA5-BCD8-7D0056D4CD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25570" yWindow="330" windowWidth="25090" windowHeight="7740" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9500" yWindow="0" windowWidth="25090" windowHeight="9850" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load-1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>drake</t>
   </si>
   <si>
-    <t>Davit</t>
-  </si>
-  <si>
     <t>draKe</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Snoop Lion</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -444,13 +444,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,10 +544,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,10 +597,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -612,8 +612,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBC21CF-E99A-460A-8AB2-D8E7D263F8E7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45002.009282407409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3606E1B1-5FDA-4CF4-91B4-47BC4ACC0A34}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45002.009282407409</v>
+        <v>45003.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -660,17 +712,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3606E1B1-5FDA-4CF4-91B4-47BC4ACC0A34}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73B845E-69BC-4FF9-96AC-507DB3D3CF14}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -695,16 +747,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45003.009282407409</v>
+        <v>45004.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -712,17 +764,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73B845E-69BC-4FF9-96AC-507DB3D3CF14}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930DB67D-3212-473E-9739-1B56BF05AA56}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -747,16 +799,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45004.009282407409</v>
+        <v>45005.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -764,17 +816,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930DB67D-3212-473E-9739-1B56BF05AA56}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2D75DB-F251-437F-9067-A0D2806DC364}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -799,68 +852,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45005.009282407409</v>
+        <v>45006.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2D75DB-F251-437F-9067-A0D2806DC364}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45006.009282407409</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -900,13 +901,13 @@
         <v>45007.009282407409</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -952,13 +953,13 @@
         <v>45008.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +972,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,13 +1005,13 @@
         <v>45009.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
